--- a/ig/ch-epr-term/ValueSet-EprPurposeOfUse.xlsx
+++ b/ig/ch-epr-term/ValueSet-EprPurposeOfUse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>DICOM_AUTO</t>
+  </si>
+  <si>
+    <t>Automatic upload of radiological contents</t>
   </si>
   <si>
     <t>EMER</t>
@@ -254,10 +260,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -456,15 +462,23 @@
         <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-term/ValueSet-EprPurposeOfUse.xlsx
+++ b/ig/ch-epr-term/ValueSet-EprPurposeOfUse.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.15.2 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.15.2 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
